--- a/xlsx/a69_f09UPPachuca.xlsx
+++ b/xlsx/a69_f09UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Vo.Bo. Uno UPP 4T 2020\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Vo.Bo. Uno UPP 4T 2020\4TO TRIMESTRE 2020\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,8 +1603,8 @@
       <c r="Y8" s="12">
         <v>44110</v>
       </c>
-      <c r="Z8" s="11">
-        <v>75</v>
+      <c r="Z8" s="3">
+        <v>175</v>
       </c>
       <c r="AA8" s="9">
         <v>0</v>
@@ -1788,8 +1788,8 @@
       <c r="Y9" s="12">
         <v>44112</v>
       </c>
-      <c r="Z9" s="11">
-        <v>112</v>
+      <c r="Z9" s="3">
+        <v>176</v>
       </c>
       <c r="AA9" s="9">
         <v>0</v>
@@ -1973,8 +1973,8 @@
       <c r="Y10" s="12">
         <v>44112</v>
       </c>
-      <c r="Z10" s="11">
-        <v>85</v>
+      <c r="Z10" s="3">
+        <v>177</v>
       </c>
       <c r="AA10" s="9">
         <v>0</v>
@@ -2158,8 +2158,8 @@
       <c r="Y11" s="12">
         <v>44117</v>
       </c>
-      <c r="Z11" s="11">
-        <v>89</v>
+      <c r="Z11" s="3">
+        <v>178</v>
       </c>
       <c r="AA11" s="9">
         <v>0</v>
@@ -2343,8 +2343,8 @@
       <c r="Y12" s="12">
         <v>44117</v>
       </c>
-      <c r="Z12" s="11">
-        <v>85</v>
+      <c r="Z12" s="3">
+        <v>179</v>
       </c>
       <c r="AA12" s="9">
         <v>0</v>
@@ -2528,8 +2528,8 @@
       <c r="Y13" s="14">
         <v>44127</v>
       </c>
-      <c r="Z13" s="11">
-        <v>112</v>
+      <c r="Z13" s="3">
+        <v>180</v>
       </c>
       <c r="AA13" s="9">
         <v>0</v>
@@ -2713,8 +2713,8 @@
       <c r="Y14" s="14">
         <v>44127</v>
       </c>
-      <c r="Z14" s="11">
-        <v>112</v>
+      <c r="Z14" s="3">
+        <v>181</v>
       </c>
       <c r="AA14" s="9">
         <v>0</v>
@@ -2898,8 +2898,8 @@
       <c r="Y15" s="14">
         <v>44127</v>
       </c>
-      <c r="Z15" s="11">
-        <v>85</v>
+      <c r="Z15" s="3">
+        <v>182</v>
       </c>
       <c r="AA15" s="9">
         <v>0</v>
@@ -3083,8 +3083,8 @@
       <c r="Y16" s="14">
         <v>44144</v>
       </c>
-      <c r="Z16" s="11">
-        <v>175</v>
+      <c r="Z16" s="3">
+        <v>183</v>
       </c>
       <c r="AA16" s="9">
         <v>0</v>
@@ -3268,8 +3268,8 @@
       <c r="Y17" s="14">
         <v>44144</v>
       </c>
-      <c r="Z17" s="11">
-        <v>80.5</v>
+      <c r="Z17" s="3">
+        <v>184</v>
       </c>
       <c r="AA17" s="9">
         <v>0</v>
@@ -3453,8 +3453,8 @@
       <c r="Y18" s="14">
         <v>44148</v>
       </c>
-      <c r="Z18" s="11">
-        <v>75</v>
+      <c r="Z18" s="3">
+        <v>185</v>
       </c>
       <c r="AA18" s="9">
         <v>0</v>
@@ -3638,8 +3638,8 @@
       <c r="Y19" s="14">
         <v>44158</v>
       </c>
-      <c r="Z19" s="11">
-        <v>75</v>
+      <c r="Z19" s="3">
+        <v>186</v>
       </c>
       <c r="AA19" s="9">
         <v>0</v>
@@ -3823,8 +3823,8 @@
       <c r="Y20" s="14">
         <v>44160</v>
       </c>
-      <c r="Z20" s="11">
-        <v>75</v>
+      <c r="Z20" s="3">
+        <v>187</v>
       </c>
       <c r="AA20" s="9">
         <v>0</v>
@@ -4008,8 +4008,8 @@
       <c r="Y21" s="14">
         <v>44160</v>
       </c>
-      <c r="Z21" s="11">
-        <v>112</v>
+      <c r="Z21" s="3">
+        <v>188</v>
       </c>
       <c r="AA21" s="9">
         <v>0</v>
@@ -4193,8 +4193,8 @@
       <c r="Y22" s="14">
         <v>44160</v>
       </c>
-      <c r="Z22" s="11">
-        <v>85</v>
+      <c r="Z22" s="3">
+        <v>189</v>
       </c>
       <c r="AA22" s="9">
         <v>0</v>
@@ -4378,8 +4378,8 @@
       <c r="Y23" s="6">
         <v>44162</v>
       </c>
-      <c r="Z23" s="8">
-        <v>75</v>
+      <c r="Z23" s="3">
+        <v>190</v>
       </c>
       <c r="AA23" s="9">
         <v>0</v>
@@ -4563,8 +4563,8 @@
       <c r="Y24" s="6">
         <v>44162</v>
       </c>
-      <c r="Z24" s="8">
-        <v>112</v>
+      <c r="Z24" s="3">
+        <v>191</v>
       </c>
       <c r="AA24" s="9">
         <v>0</v>
@@ -4748,8 +4748,8 @@
       <c r="Y25" s="6">
         <v>44162</v>
       </c>
-      <c r="Z25" s="8">
-        <v>125</v>
+      <c r="Z25" s="3">
+        <v>192</v>
       </c>
       <c r="AA25" s="9">
         <v>0</v>
@@ -4933,8 +4933,8 @@
       <c r="Y26" s="6">
         <v>44165</v>
       </c>
-      <c r="Z26" s="8">
-        <v>75</v>
+      <c r="Z26" s="3">
+        <v>193</v>
       </c>
       <c r="AA26" s="9">
         <v>0</v>
@@ -5118,8 +5118,8 @@
       <c r="Y27" s="6">
         <v>44166</v>
       </c>
-      <c r="Z27" s="8">
-        <v>112</v>
+      <c r="Z27" s="3">
+        <v>194</v>
       </c>
       <c r="AA27" s="9">
         <v>0</v>
@@ -5303,8 +5303,8 @@
       <c r="Y28" s="6">
         <v>44166</v>
       </c>
-      <c r="Z28" s="8">
-        <v>85</v>
+      <c r="Z28" s="3">
+        <v>195</v>
       </c>
       <c r="AA28" s="9">
         <v>0</v>
@@ -5488,8 +5488,8 @@
       <c r="Y29" s="6">
         <v>44169</v>
       </c>
-      <c r="Z29" s="8">
-        <v>270</v>
+      <c r="Z29" s="3">
+        <v>196</v>
       </c>
       <c r="AA29" s="9">
         <v>0</v>
@@ -5673,8 +5673,8 @@
       <c r="Y30" s="6">
         <v>44176</v>
       </c>
-      <c r="Z30" s="8">
-        <v>336</v>
+      <c r="Z30" s="3">
+        <v>197</v>
       </c>
       <c r="AA30" s="9">
         <v>0</v>
@@ -5858,8 +5858,8 @@
       <c r="Y31" s="6">
         <v>44176</v>
       </c>
-      <c r="Z31" s="8">
-        <v>170</v>
+      <c r="Z31" s="3">
+        <v>198</v>
       </c>
       <c r="AA31" s="9">
         <v>0</v>
@@ -6173,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD118"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6566,8 +6566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD120"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xlsx/a69_f09UPPachuca.xlsx
+++ b/xlsx/a69_f09UPPachuca.xlsx
@@ -508,9 +508,6 @@
     <t>Francisco I. Madero</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca7dir1/2022/Abril-Junio/09/Normativa/manual_de_gastos.pdf</t>
-  </si>
-  <si>
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/09/Comprobantes/013-2.pdf</t>
   </si>
   <si>
@@ -659,6 +656,9 @@
   </si>
   <si>
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/09/Informes/037-2.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/09/Normativa/manual_de_gastos.pdf</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1089,10 +1089,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E3" sqref="E3"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,13 +1635,13 @@
         <v>44656</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE8" s="15">
         <v>13</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG8" s="8" t="s">
         <v>114</v>
@@ -1743,13 +1743,13 @@
         <v>44643</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE9" s="15">
         <v>14</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG9" s="8" t="s">
         <v>114</v>
@@ -1851,13 +1851,13 @@
         <v>44643</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE10" s="15">
         <v>15</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG10" s="8" t="s">
         <v>114</v>
@@ -1959,13 +1959,13 @@
         <v>44643</v>
       </c>
       <c r="AD11" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE11" s="15">
         <v>16</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG11" s="8" t="s">
         <v>114</v>
@@ -2067,13 +2067,13 @@
         <v>44656</v>
       </c>
       <c r="AD12" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE12" s="15">
         <v>17</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG12" s="8" t="s">
         <v>114</v>
@@ -2175,13 +2175,13 @@
         <v>44656</v>
       </c>
       <c r="AD13" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE13" s="15">
         <v>18</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG13" s="8" t="s">
         <v>114</v>
@@ -2283,13 +2283,13 @@
         <v>44657</v>
       </c>
       <c r="AD14" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AE14" s="15">
         <v>19</v>
       </c>
       <c r="AF14" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG14" s="8" t="s">
         <v>114</v>
@@ -2391,13 +2391,13 @@
         <v>44657</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE15" s="15">
         <v>20</v>
       </c>
       <c r="AF15" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG15" s="8" t="s">
         <v>114</v>
@@ -2499,13 +2499,13 @@
         <v>44662</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE16" s="15">
         <v>21</v>
       </c>
       <c r="AF16" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG16" s="8" t="s">
         <v>114</v>
@@ -2607,13 +2607,13 @@
         <v>44662</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE17" s="15">
         <v>22</v>
       </c>
       <c r="AF17" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG17" s="8" t="s">
         <v>114</v>
@@ -2715,13 +2715,13 @@
         <v>44664</v>
       </c>
       <c r="AD18" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE18" s="15">
         <v>23</v>
       </c>
       <c r="AF18" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG18" s="8" t="s">
         <v>114</v>
@@ -2823,13 +2823,13 @@
         <v>44671</v>
       </c>
       <c r="AD19" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE19" s="15">
         <v>24</v>
       </c>
       <c r="AF19" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG19" s="8" t="s">
         <v>114</v>
@@ -2931,13 +2931,13 @@
         <v>44667</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE20" s="15">
         <v>25</v>
       </c>
       <c r="AF20" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG20" s="8" t="s">
         <v>114</v>
@@ -3039,13 +3039,13 @@
         <v>44680</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE21" s="15">
         <v>26</v>
       </c>
       <c r="AF21" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG21" s="8" t="s">
         <v>114</v>
@@ -3147,13 +3147,13 @@
         <v>44683</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AE22" s="15">
         <v>27</v>
       </c>
       <c r="AF22" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG22" s="8" t="s">
         <v>114</v>
@@ -3255,13 +3255,13 @@
         <v>44706</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AE23" s="15">
         <v>28</v>
       </c>
       <c r="AF23" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG23" s="8" t="s">
         <v>114</v>
@@ -3363,13 +3363,13 @@
         <v>44706</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE24" s="15">
         <v>29</v>
       </c>
       <c r="AF24" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG24" s="8" t="s">
         <v>114</v>
@@ -3471,13 +3471,13 @@
         <v>44706</v>
       </c>
       <c r="AD25" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE25" s="15">
         <v>30</v>
       </c>
       <c r="AF25" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG25" s="8" t="s">
         <v>114</v>
@@ -3579,13 +3579,13 @@
         <v>44707</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE26" s="15">
         <v>31</v>
       </c>
       <c r="AF26" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG26" s="8" t="s">
         <v>114</v>
@@ -3687,13 +3687,13 @@
         <v>44683</v>
       </c>
       <c r="AD27" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AE27" s="15">
         <v>32</v>
       </c>
       <c r="AF27" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG27" s="8" t="s">
         <v>114</v>
@@ -3795,13 +3795,13 @@
         <v>44683</v>
       </c>
       <c r="AD28" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AE28" s="15">
         <v>33</v>
       </c>
       <c r="AF28" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG28" s="8" t="s">
         <v>114</v>
@@ -3903,13 +3903,13 @@
         <v>44818</v>
       </c>
       <c r="AD29" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE29" s="15">
         <v>34</v>
       </c>
       <c r="AF29" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG29" s="8" t="s">
         <v>114</v>
@@ -4011,13 +4011,13 @@
         <v>44727</v>
       </c>
       <c r="AD30" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE30" s="15">
         <v>35</v>
       </c>
       <c r="AF30" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG30" s="8" t="s">
         <v>114</v>
@@ -4119,13 +4119,13 @@
         <v>44728</v>
       </c>
       <c r="AD31" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE31" s="15">
         <v>36</v>
       </c>
       <c r="AF31" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG31" s="8" t="s">
         <v>114</v>
@@ -4227,13 +4227,13 @@
         <v>44732</v>
       </c>
       <c r="AD32" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE32" s="15">
         <v>37</v>
       </c>
       <c r="AF32" s="14" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="AG32" s="8" t="s">
         <v>114</v>
@@ -4271,31 +4271,31 @@
     <hyperlink ref="AD8" r:id="rId1"/>
     <hyperlink ref="AD22" r:id="rId2"/>
     <hyperlink ref="AD23" r:id="rId3"/>
-    <hyperlink ref="AF10" r:id="rId4"/>
-    <hyperlink ref="AF11:AF32" r:id="rId5" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca7dir1/2022/Abril-Junio/09/Normativa/manual_de_gastos.pdf"/>
-    <hyperlink ref="AF8:AF9" r:id="rId6" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca7dir1/2022/Abril-Junio/09/Normativa/manual_de_gastos.pdf"/>
-    <hyperlink ref="AD9" r:id="rId7"/>
-    <hyperlink ref="AD10" r:id="rId8"/>
-    <hyperlink ref="AD11" r:id="rId9"/>
-    <hyperlink ref="AD12" r:id="rId10"/>
-    <hyperlink ref="AD13" r:id="rId11"/>
-    <hyperlink ref="AD14" r:id="rId12"/>
-    <hyperlink ref="AD15" r:id="rId13"/>
-    <hyperlink ref="AD16" r:id="rId14"/>
-    <hyperlink ref="AD17" r:id="rId15"/>
-    <hyperlink ref="AD18" r:id="rId16"/>
-    <hyperlink ref="AD19" r:id="rId17"/>
-    <hyperlink ref="AD20" r:id="rId18"/>
-    <hyperlink ref="AD21" r:id="rId19"/>
-    <hyperlink ref="AD24" r:id="rId20"/>
-    <hyperlink ref="AD25" r:id="rId21"/>
-    <hyperlink ref="AD26" r:id="rId22"/>
-    <hyperlink ref="AD27" r:id="rId23"/>
-    <hyperlink ref="AD28" r:id="rId24"/>
-    <hyperlink ref="AD29" r:id="rId25"/>
-    <hyperlink ref="AD30" r:id="rId26"/>
-    <hyperlink ref="AD31" r:id="rId27"/>
-    <hyperlink ref="AD32" r:id="rId28"/>
+    <hyperlink ref="AF8:AF9" r:id="rId4" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca7dir1/2022/Abril-Junio/09/Normativa/manual_de_gastos.pdf"/>
+    <hyperlink ref="AD9" r:id="rId5"/>
+    <hyperlink ref="AD10" r:id="rId6"/>
+    <hyperlink ref="AD11" r:id="rId7"/>
+    <hyperlink ref="AD12" r:id="rId8"/>
+    <hyperlink ref="AD13" r:id="rId9"/>
+    <hyperlink ref="AD14" r:id="rId10"/>
+    <hyperlink ref="AD15" r:id="rId11"/>
+    <hyperlink ref="AD16" r:id="rId12"/>
+    <hyperlink ref="AD17" r:id="rId13"/>
+    <hyperlink ref="AD18" r:id="rId14"/>
+    <hyperlink ref="AD19" r:id="rId15"/>
+    <hyperlink ref="AD20" r:id="rId16"/>
+    <hyperlink ref="AD21" r:id="rId17"/>
+    <hyperlink ref="AD24" r:id="rId18"/>
+    <hyperlink ref="AD25" r:id="rId19"/>
+    <hyperlink ref="AD26" r:id="rId20"/>
+    <hyperlink ref="AD27" r:id="rId21"/>
+    <hyperlink ref="AD28" r:id="rId22"/>
+    <hyperlink ref="AD29" r:id="rId23"/>
+    <hyperlink ref="AD30" r:id="rId24"/>
+    <hyperlink ref="AD31" r:id="rId25"/>
+    <hyperlink ref="AD32" r:id="rId26"/>
+    <hyperlink ref="AF8" r:id="rId27"/>
+    <hyperlink ref="AF9:AF32" r:id="rId28" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca7dir1/2022/Abril-Junio/09/Normativa/manual_de_gastos.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
@@ -4861,7 +4861,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4869,7 +4869,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4877,7 +4877,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,7 +4901,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4917,7 +4917,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4925,7 +4925,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4933,7 +4933,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4941,7 +4941,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4949,7 +4949,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4973,7 +4973,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,7 +4997,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5005,7 +5005,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5013,7 +5013,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5021,7 +5021,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,7 +5029,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5037,7 +5037,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5045,7 +5045,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5053,7 +5053,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f09UPPachuca.xlsx
+++ b/xlsx/a69_f09UPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{359C361F-CEFF-43DE-AD09-B59E4096C501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="253">
   <si>
     <t>44223</t>
   </si>
@@ -412,9 +406,6 @@
     <t>Tulancingo</t>
   </si>
   <si>
-    <t>Traslado de carga</t>
-  </si>
-  <si>
     <t>Juan Tomás</t>
   </si>
   <si>
@@ -424,9 +415,6 @@
     <t>Hernández</t>
   </si>
   <si>
-    <t>Ixmiquilpan</t>
-  </si>
-  <si>
     <t>Técnico Especializado</t>
   </si>
   <si>
@@ -457,57 +445,12 @@
     <t>Mensajería</t>
   </si>
   <si>
-    <t>Tula</t>
-  </si>
-  <si>
-    <t>Entrega de documentación.</t>
-  </si>
-  <si>
-    <t>Morelos</t>
-  </si>
-  <si>
-    <t>Jiutepec</t>
-  </si>
-  <si>
-    <t>11-B</t>
-  </si>
-  <si>
-    <t>Director de Área</t>
-  </si>
-  <si>
-    <t>Director Área</t>
-  </si>
-  <si>
-    <t>Dirección de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>Francisco Rafael</t>
-  </si>
-  <si>
-    <t>Trejo</t>
-  </si>
-  <si>
-    <t>Macotela</t>
-  </si>
-  <si>
-    <t>Asistencia a congresos</t>
-  </si>
-  <si>
-    <t>Asistencia a congreso</t>
-  </si>
-  <si>
-    <t>Chilcuautla</t>
-  </si>
-  <si>
     <t>Gayosso</t>
   </si>
   <si>
     <t>Gutiérrez</t>
   </si>
   <si>
-    <t>Tlaxcala</t>
-  </si>
-  <si>
     <t>Zumpango</t>
   </si>
   <si>
@@ -520,187 +463,334 @@
     <t>Viáticos en el país</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/039.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/040.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/041.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/042.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/043.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/044.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/045.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/046.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/047.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/048.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/049.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/050.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/051.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/052.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/053.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/054.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/055.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/056.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/057.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/058.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/059.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/060.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/061.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/062.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/063.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/064.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/065.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/066.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Comprobantes/067.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/manual_de_gastos.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/039-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/040-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/041-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/042-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/043-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/044-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/045-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/046-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/047-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/048-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/049-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/050-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/051-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/052-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/053-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/054-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/055-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/056-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/057-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/058-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/059-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/060-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/061-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/062-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/063-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/064-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/065-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/066-3.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/Informes/067-3.pdf</t>
+    <t>http://indemun.hidalgo.gob.mx/docs/normatividad/manual_de_gastos.pdf</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento C</t>
+  </si>
+  <si>
+    <t>Guanajuato</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>Tecámac</t>
+  </si>
+  <si>
+    <t>Acaxochitlán</t>
+  </si>
+  <si>
+    <t>Traslado de carga en general</t>
+  </si>
+  <si>
+    <t>Mixquiahuala</t>
+  </si>
+  <si>
+    <t>Villa de Tezontepec</t>
+  </si>
+  <si>
+    <t>Atizapán</t>
+  </si>
+  <si>
+    <t>Texcoco</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>PIT B</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>Gestoría</t>
+  </si>
+  <si>
+    <t>Trámites INDAUTOR</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>Pachuca</t>
+  </si>
+  <si>
+    <t>Reunión de trabajo</t>
+  </si>
+  <si>
+    <t>Huichapan</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/068-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/069-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/070-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/071-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/072-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/073-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/074-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/075-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/076-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/077-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/078-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/079-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/080-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/081-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/082-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/083-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/084-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/085-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/086-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/087-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/088-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/089-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/090-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/091-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/092-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/093-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/094-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/095-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/096-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/097-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/098-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/099-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/100-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/101-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/102-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/103-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/104-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/105-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/106-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/107-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/108-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Informes/109-4.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/68.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/69.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/70.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/71.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/72.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/73.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/74.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/75.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/76.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/77.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/78.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/79.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/80.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/81.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/82.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/83.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/84.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/85.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/86.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/87.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/88.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/89.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/90.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/91.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/92.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/93.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/94.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/95.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/96.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/97.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/98.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/99.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/100.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/101.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/102.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/103.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/104.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/105.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/106.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/107.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/108.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/9/Comprobantes/109.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,11 +804,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -784,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -798,14 +890,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -818,11 +920,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1097,15 +1196,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
@@ -1157,44 +1256,44 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:36" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1417,44 +1516,44 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
     </row>
     <row r="7" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1571,10 +1670,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>91</v>
@@ -1628,85 +1727,85 @@
         <v>122</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="X8" s="3">
-        <v>44739</v>
+        <v>44827</v>
       </c>
       <c r="Y8" s="3">
-        <v>44739</v>
+        <v>44827</v>
       </c>
       <c r="Z8" s="4">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AA8" s="4">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AB8" s="4">
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <v>44742</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>192</v>
+        <v>44832</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="AE8" s="4">
-        <v>39</v>
-      </c>
-      <c r="AF8" s="14" t="s">
-        <v>191</v>
+        <v>68</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG8" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ8" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ8" s="5"/>
     </row>
     <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C9" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>101</v>
@@ -1718,7 +1817,7 @@
         <v>103</v>
       </c>
       <c r="O9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
@@ -1739,19 +1838,19 @@
         <v>123</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X9" s="3">
-        <v>44730</v>
+        <v>44828</v>
       </c>
       <c r="Y9" s="3">
-        <v>44730</v>
+        <v>44828</v>
       </c>
       <c r="Z9" s="4">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="AA9" s="4">
         <v>75</v>
@@ -1760,61 +1859,61 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <v>44733</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>193</v>
+        <v>44832</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="AE9" s="4">
-        <v>40</v>
-      </c>
-      <c r="AF9" s="14" t="s">
-        <v>191</v>
+        <v>69</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG9" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH9" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI9" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ9" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ9" s="5"/>
     </row>
     <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C10" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>115</v>
+      <c r="E10" s="4">
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>101</v>
@@ -1844,85 +1943,85 @@
         <v>122</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X10" s="3">
-        <v>44730</v>
+        <v>44829</v>
       </c>
       <c r="Y10" s="3">
-        <v>44822</v>
+        <v>44829</v>
       </c>
       <c r="Z10" s="4">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="4">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="AB10" s="4">
         <v>0</v>
       </c>
       <c r="AC10" s="3">
-        <v>44734</v>
-      </c>
-      <c r="AD10" s="14" t="s">
-        <v>194</v>
+        <v>44832</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="AE10" s="4">
-        <v>41</v>
-      </c>
-      <c r="AF10" s="14" t="s">
-        <v>191</v>
+        <v>70</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG10" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH10" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI10" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ10" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ10" s="5"/>
     </row>
     <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C11" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="4">
-        <v>7</v>
+      <c r="E11" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>101</v>
@@ -1952,61 +2051,61 @@
         <v>122</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W11" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X11" s="3">
-        <v>44734</v>
+        <v>44830</v>
       </c>
       <c r="Y11" s="3">
-        <v>44734</v>
+        <v>44830</v>
       </c>
       <c r="Z11" s="4">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="AA11" s="4">
-        <v>461.01</v>
+        <v>201</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
       </c>
       <c r="AC11" s="3">
-        <v>44739</v>
-      </c>
-      <c r="AD11" s="14" t="s">
-        <v>195</v>
+        <v>44833</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="AE11" s="4">
-        <v>42</v>
-      </c>
-      <c r="AF11" s="14" t="s">
-        <v>191</v>
+        <v>71</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG11" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH11" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI11" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ11" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ11" s="5"/>
     </row>
     <row r="12" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2022</v>
       </c>
       <c r="B12" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C12" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>91</v>
@@ -2015,22 +2114,22 @@
         <v>7</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>101</v>
@@ -2042,7 +2141,7 @@
         <v>103</v>
       </c>
       <c r="O12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="4">
         <v>0</v>
@@ -2060,61 +2159,61 @@
         <v>122</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X12" s="3">
-        <v>44739</v>
+        <v>44831</v>
       </c>
       <c r="Y12" s="3">
-        <v>44739</v>
+        <v>44831</v>
       </c>
       <c r="Z12" s="4">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="AA12" s="4">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="AB12" s="4">
         <v>0</v>
       </c>
       <c r="AC12" s="3">
-        <v>44742</v>
-      </c>
-      <c r="AD12" s="14" t="s">
-        <v>196</v>
+        <v>44834</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="AE12" s="4">
-        <v>43</v>
-      </c>
-      <c r="AF12" s="14" t="s">
-        <v>191</v>
+        <v>72</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG12" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH12" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI12" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ12" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ12" s="5"/>
     </row>
     <row r="13" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C13" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>91</v>
@@ -2123,28 +2222,28 @@
         <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>103</v>
@@ -2168,85 +2267,85 @@
         <v>122</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="X13" s="3">
-        <v>44743</v>
+        <v>44832</v>
       </c>
       <c r="Y13" s="3">
-        <v>44743</v>
+        <v>44832</v>
       </c>
       <c r="Z13" s="4">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AA13" s="4">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AB13" s="4">
         <v>0</v>
       </c>
       <c r="AC13" s="3">
-        <v>44713</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>197</v>
+        <v>44837</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="AE13" s="4">
-        <v>44</v>
-      </c>
-      <c r="AF13" s="14" t="s">
-        <v>191</v>
+        <v>73</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH13" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI13" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ13" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ13" s="5"/>
     </row>
     <row r="14" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C14" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="4">
-        <v>7</v>
+      <c r="E14" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>101</v>
@@ -2276,73 +2375,73 @@
         <v>122</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X14" s="3">
-        <v>44746</v>
+        <v>44832</v>
       </c>
       <c r="Y14" s="3">
-        <v>44746</v>
+        <v>44834</v>
       </c>
       <c r="Z14" s="4">
-        <v>45</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>155</v>
+        <v>74</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>1839.62</v>
       </c>
       <c r="AB14" s="4">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
-        <v>44749</v>
-      </c>
-      <c r="AD14" s="14" t="s">
-        <v>198</v>
+        <v>44839</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="AE14" s="4">
-        <v>45</v>
-      </c>
-      <c r="AF14" s="14" t="s">
-        <v>191</v>
+        <v>74</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG14" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH14" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI14" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ14" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ14" s="5"/>
     </row>
     <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C15" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="4">
-        <v>7</v>
+      <c r="E15" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>117</v>
@@ -2360,7 +2459,7 @@
         <v>101</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>103</v>
@@ -2384,61 +2483,61 @@
         <v>122</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="X15" s="3">
-        <v>44746</v>
+        <v>44832</v>
       </c>
       <c r="Y15" s="3">
-        <v>44746</v>
+        <v>44833</v>
       </c>
       <c r="Z15" s="4">
-        <v>46</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>201</v>
+        <v>75</v>
+      </c>
+      <c r="AA15" s="17">
+        <v>1874</v>
       </c>
       <c r="AB15" s="4">
         <v>0</v>
       </c>
       <c r="AC15" s="3">
-        <v>44749</v>
-      </c>
-      <c r="AD15" s="14" t="s">
-        <v>199</v>
+        <v>44838</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="AE15" s="4">
-        <v>46</v>
-      </c>
-      <c r="AF15" s="14" t="s">
-        <v>191</v>
+        <v>75</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG15" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH15" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI15" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ15" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ15" s="5"/>
     </row>
     <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C16" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>91</v>
@@ -2447,28 +2546,28 @@
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>103</v>
@@ -2492,61 +2591,61 @@
         <v>122</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="X16" s="3">
-        <v>44747</v>
+        <v>44836</v>
       </c>
       <c r="Y16" s="3">
-        <v>44747</v>
+        <v>44836</v>
       </c>
       <c r="Z16" s="4">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AA16" s="4">
-        <v>453</v>
+        <v>317</v>
       </c>
       <c r="AB16" s="4">
         <v>0</v>
       </c>
       <c r="AC16" s="3">
-        <v>44750</v>
-      </c>
-      <c r="AD16" s="14" t="s">
-        <v>200</v>
+        <v>44839</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="AE16" s="4">
-        <v>47</v>
-      </c>
-      <c r="AF16" s="14" t="s">
-        <v>191</v>
+        <v>76</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG16" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH16" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI16" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ16" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ16" s="5"/>
     </row>
     <row r="17" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C17" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>91</v>
@@ -2555,22 +2654,22 @@
         <v>7</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>101</v>
@@ -2600,91 +2699,91 @@
         <v>122</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="W17" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X17" s="3">
-        <v>44747</v>
+        <v>44838</v>
       </c>
       <c r="Y17" s="3">
-        <v>44748</v>
+        <v>44838</v>
       </c>
       <c r="Z17" s="4">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="AA17" s="4">
-        <v>492</v>
+        <v>75</v>
       </c>
       <c r="AB17" s="4">
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD17" s="14" t="s">
-        <v>201</v>
+        <v>44841</v>
+      </c>
+      <c r="AD17" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="AE17" s="4">
-        <v>48</v>
-      </c>
-      <c r="AF17" s="14" t="s">
-        <v>191</v>
+        <v>77</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG17" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH17" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI17" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ17" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ17" s="5"/>
     </row>
     <row r="18" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C18" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>145</v>
+      <c r="E18" s="4">
+        <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>103</v>
@@ -2708,97 +2807,97 @@
         <v>122</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="X18" s="3">
-        <v>44748</v>
+        <v>44839</v>
       </c>
       <c r="Y18" s="3">
-        <v>44748</v>
+        <v>44844</v>
       </c>
       <c r="Z18" s="4">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AA18" s="4">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="AB18" s="4">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD18" s="14" t="s">
-        <v>202</v>
+        <v>44847</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="AE18" s="4">
-        <v>49</v>
-      </c>
-      <c r="AF18" s="14" t="s">
-        <v>191</v>
+        <v>78</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG18" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH18" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI18" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ18" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ18" s="5"/>
     </row>
     <row r="19" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C19" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="4">
-        <v>7</v>
+      <c r="E19" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4">
         <v>0</v>
@@ -2816,85 +2915,85 @@
         <v>122</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="X19" s="3">
-        <v>44761</v>
+        <v>44840</v>
       </c>
       <c r="Y19" s="3">
-        <v>44761</v>
+        <v>44840</v>
       </c>
       <c r="Z19" s="4">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AA19" s="4">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AB19" s="4">
         <v>0</v>
       </c>
       <c r="AC19" s="3">
-        <v>44764</v>
-      </c>
-      <c r="AD19" s="14" t="s">
-        <v>203</v>
+        <v>44845</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="AE19" s="4">
-        <v>50</v>
-      </c>
-      <c r="AF19" s="14" t="s">
-        <v>191</v>
+        <v>79</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG19" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH19" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI19" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ19" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ19" s="5"/>
     </row>
     <row r="20" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C20" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="4">
-        <v>7</v>
+      <c r="E20" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>101</v>
@@ -2924,61 +3023,61 @@
         <v>122</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W20" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X20" s="3">
-        <v>44765</v>
+        <v>44841</v>
       </c>
       <c r="Y20" s="3">
-        <v>44765</v>
+        <v>44841</v>
       </c>
       <c r="Z20" s="4">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AA20" s="4">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AB20" s="4">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>44770</v>
-      </c>
-      <c r="AD20" s="14" t="s">
-        <v>204</v>
+        <v>44846</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="AE20" s="4">
-        <v>51</v>
-      </c>
-      <c r="AF20" s="14" t="s">
-        <v>191</v>
+        <v>80</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG20" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH20" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI20" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ20" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ20" s="5"/>
     </row>
     <row r="21" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C21" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>91</v>
@@ -2987,34 +3086,34 @@
         <v>7</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -3032,61 +3131,61 @@
         <v>122</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X21" s="3">
-        <v>44754</v>
+        <v>44841</v>
       </c>
       <c r="Y21" s="3">
-        <v>44754</v>
+        <v>44841</v>
       </c>
       <c r="Z21" s="4">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="AA21" s="4">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB21" s="4">
         <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <v>44757</v>
-      </c>
-      <c r="AD21" s="14" t="s">
-        <v>205</v>
+        <v>44846</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="AE21" s="4">
-        <v>52</v>
-      </c>
-      <c r="AF21" s="14" t="s">
-        <v>191</v>
+        <v>81</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG21" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH21" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI21" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ21" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ21" s="5"/>
     </row>
     <row r="22" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C22" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>91</v>
@@ -3095,22 +3194,22 @@
         <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>101</v>
@@ -3140,22 +3239,22 @@
         <v>122</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="W22" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X22" s="3">
-        <v>44759</v>
+        <v>44842</v>
       </c>
       <c r="Y22" s="3">
-        <v>44759</v>
+        <v>44842</v>
       </c>
       <c r="Z22" s="4">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="AA22" s="4">
         <v>85</v>
@@ -3164,37 +3263,37 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3">
-        <v>44762</v>
-      </c>
-      <c r="AD22" s="14" t="s">
-        <v>206</v>
+        <v>44846</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="AE22" s="4">
-        <v>53</v>
-      </c>
-      <c r="AF22" s="14" t="s">
-        <v>191</v>
+        <v>82</v>
+      </c>
+      <c r="AF22" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG22" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH22" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI22" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ22" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ22" s="5"/>
     </row>
     <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C23" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>91</v>
@@ -3203,34 +3302,34 @@
         <v>7</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="4">
         <v>0</v>
@@ -3248,85 +3347,85 @@
         <v>122</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="X23" s="3">
-        <v>44782</v>
+        <v>44845</v>
       </c>
       <c r="Y23" s="3">
-        <v>44782</v>
+        <v>44848</v>
       </c>
       <c r="Z23" s="4">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="AA23" s="4">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="AB23" s="4">
         <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <v>44785</v>
-      </c>
-      <c r="AD23" s="14" t="s">
-        <v>207</v>
+        <v>44853</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="AE23" s="4">
-        <v>54</v>
-      </c>
-      <c r="AF23" s="14" t="s">
-        <v>191</v>
+        <v>83</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG23" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH23" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI23" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ23" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ23" s="5"/>
     </row>
     <row r="24" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C24" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="4">
-        <v>7</v>
+      <c r="E24" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>101</v>
@@ -3356,61 +3455,61 @@
         <v>122</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="W24" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X24" s="3">
-        <v>44783</v>
+        <v>44846</v>
       </c>
       <c r="Y24" s="3">
-        <v>44783</v>
+        <v>44846</v>
       </c>
       <c r="Z24" s="4">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AA24" s="4">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB24" s="4">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
-        <v>44788</v>
-      </c>
-      <c r="AD24" s="14" t="s">
-        <v>208</v>
+        <v>44851</v>
+      </c>
+      <c r="AD24" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="AE24" s="4">
-        <v>55</v>
-      </c>
-      <c r="AF24" s="14" t="s">
-        <v>191</v>
+        <v>84</v>
+      </c>
+      <c r="AF24" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH24" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI24" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ24" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ24" s="5"/>
     </row>
     <row r="25" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C25" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>91</v>
@@ -3419,34 +3518,34 @@
         <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4">
         <v>0</v>
@@ -3464,61 +3563,61 @@
         <v>122</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="X25" s="3">
-        <v>44784</v>
+        <v>44846</v>
       </c>
       <c r="Y25" s="3">
-        <v>44784</v>
+        <v>44846</v>
       </c>
       <c r="Z25" s="4">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="AA25" s="4">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="AB25" s="4">
         <v>0</v>
       </c>
       <c r="AC25" s="3">
-        <v>44789</v>
-      </c>
-      <c r="AD25" s="14" t="s">
-        <v>209</v>
+        <v>44851</v>
+      </c>
+      <c r="AD25" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="AE25" s="4">
-        <v>56</v>
-      </c>
-      <c r="AF25" s="14" t="s">
-        <v>191</v>
+        <v>85</v>
+      </c>
+      <c r="AF25" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG25" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH25" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI25" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ25" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ25" s="5"/>
     </row>
     <row r="26" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C26" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>91</v>
@@ -3527,22 +3626,22 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>101</v>
@@ -3572,61 +3671,61 @@
         <v>122</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W26" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X26" s="3">
-        <v>44789</v>
+        <v>44847</v>
       </c>
       <c r="Y26" s="3">
-        <v>44789</v>
+        <v>44847</v>
       </c>
       <c r="Z26" s="4">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="AA26" s="4">
-        <v>317</v>
+        <v>201</v>
       </c>
       <c r="AB26" s="4">
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <v>44792</v>
-      </c>
-      <c r="AD26" s="14" t="s">
-        <v>210</v>
+        <v>44852</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="AE26" s="4">
-        <v>57</v>
-      </c>
-      <c r="AF26" s="14" t="s">
-        <v>191</v>
+        <v>86</v>
+      </c>
+      <c r="AF26" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG26" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH26" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI26" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ26" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ26" s="5"/>
     </row>
     <row r="27" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C27" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>91</v>
@@ -3635,34 +3734,34 @@
         <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="4">
         <v>0</v>
@@ -3680,85 +3779,85 @@
         <v>122</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="X27" s="3">
-        <v>44790</v>
+        <v>44848</v>
       </c>
       <c r="Y27" s="3">
-        <v>44790</v>
+        <v>44848</v>
       </c>
       <c r="Z27" s="4">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AA27" s="4">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="AB27" s="4">
         <v>0</v>
       </c>
       <c r="AC27" s="3">
-        <v>44795</v>
-      </c>
-      <c r="AD27" s="14" t="s">
-        <v>211</v>
+        <v>44853</v>
+      </c>
+      <c r="AD27" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="AE27" s="4">
-        <v>58</v>
-      </c>
-      <c r="AF27" s="14" t="s">
-        <v>191</v>
+        <v>87</v>
+      </c>
+      <c r="AF27" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG27" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH27" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI27" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ27" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C28" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="4">
-        <v>7</v>
+      <c r="E28" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>101</v>
@@ -3788,91 +3887,91 @@
         <v>122</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="W28" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X28" s="3">
-        <v>44791</v>
+        <v>44852</v>
       </c>
       <c r="Y28" s="3">
-        <v>44791</v>
+        <v>44852</v>
       </c>
       <c r="Z28" s="4">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="AA28" s="4">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="AB28" s="4">
         <v>0</v>
       </c>
       <c r="AC28" s="3">
-        <v>44794</v>
-      </c>
-      <c r="AD28" s="14" t="s">
-        <v>212</v>
+        <v>44855</v>
+      </c>
+      <c r="AD28" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="AE28" s="4">
-        <v>59</v>
-      </c>
-      <c r="AF28" s="14" t="s">
-        <v>191</v>
+        <v>88</v>
+      </c>
+      <c r="AF28" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG28" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH28" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI28" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ28" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ28" s="5"/>
     </row>
     <row r="29" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C29" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="4">
-        <v>7</v>
+      <c r="E29" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>103</v>
@@ -3896,97 +3995,97 @@
         <v>122</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="X29" s="3">
-        <v>44795</v>
+        <v>44855</v>
       </c>
       <c r="Y29" s="3">
-        <v>44795</v>
+        <v>44855</v>
       </c>
       <c r="Z29" s="4">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="AA29" s="4">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="AB29" s="4">
         <v>0</v>
       </c>
       <c r="AC29" s="3">
-        <v>44798</v>
-      </c>
-      <c r="AD29" s="14" t="s">
-        <v>213</v>
+        <v>44860</v>
+      </c>
+      <c r="AD29" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="AE29" s="4">
-        <v>60</v>
-      </c>
-      <c r="AF29" s="14" t="s">
-        <v>191</v>
+        <v>89</v>
+      </c>
+      <c r="AF29" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG29" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH29" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI29" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ29" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ29" s="5"/>
     </row>
     <row r="30" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C30" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="4">
-        <v>7</v>
+      <c r="E30" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="4">
         <v>0</v>
@@ -4004,61 +4103,61 @@
         <v>122</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="X30" s="3">
-        <v>44797</v>
+        <v>44855</v>
       </c>
       <c r="Y30" s="3">
-        <v>44797</v>
+        <v>44855</v>
       </c>
       <c r="Z30" s="4">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AA30" s="4">
-        <v>85</v>
+        <v>287</v>
       </c>
       <c r="AB30" s="4">
         <v>0</v>
       </c>
       <c r="AC30" s="3">
-        <v>44802</v>
-      </c>
-      <c r="AD30" s="14" t="s">
-        <v>214</v>
+        <v>44860</v>
+      </c>
+      <c r="AD30" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="AE30" s="4">
-        <v>61</v>
-      </c>
-      <c r="AF30" s="14" t="s">
-        <v>191</v>
+        <v>90</v>
+      </c>
+      <c r="AF30" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH30" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI30" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ30" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ30" s="5"/>
     </row>
     <row r="31" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C31" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>91</v>
@@ -4067,22 +4166,22 @@
         <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>101</v>
@@ -4112,61 +4211,61 @@
         <v>122</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W31" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X31" s="3">
-        <v>44798</v>
+        <v>44856</v>
       </c>
       <c r="Y31" s="3">
-        <v>44798</v>
+        <v>44856</v>
       </c>
       <c r="Z31" s="4">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="AA31" s="4">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AB31" s="4">
         <v>0</v>
       </c>
       <c r="AC31" s="3">
-        <v>44803</v>
-      </c>
-      <c r="AD31" s="14" t="s">
-        <v>215</v>
+        <v>44860</v>
+      </c>
+      <c r="AD31" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="AE31" s="4">
-        <v>62</v>
-      </c>
-      <c r="AF31" s="14" t="s">
-        <v>191</v>
+        <v>91</v>
+      </c>
+      <c r="AF31" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG31" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH31" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI31" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ31" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ31" s="5"/>
     </row>
     <row r="32" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C32" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>91</v>
@@ -4175,22 +4274,22 @@
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>101</v>
@@ -4220,73 +4319,73 @@
         <v>122</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="W32" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X32" s="3">
-        <v>44802</v>
+        <v>44857</v>
       </c>
       <c r="Y32" s="3">
-        <v>44802</v>
+        <v>44857</v>
       </c>
       <c r="Z32" s="4">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="AA32" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB32" s="4">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <v>44805</v>
-      </c>
-      <c r="AD32" s="14" t="s">
-        <v>216</v>
+        <v>44860</v>
+      </c>
+      <c r="AD32" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="AE32" s="4">
-        <v>63</v>
-      </c>
-      <c r="AF32" s="14" t="s">
-        <v>191</v>
+        <v>92</v>
+      </c>
+      <c r="AF32" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG32" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH32" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI32" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ32" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ32" s="5"/>
     </row>
     <row r="33" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C33" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="4">
-        <v>7</v>
+      <c r="E33" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>117</v>
@@ -4328,61 +4427,61 @@
         <v>122</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="W33" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X33" s="3">
-        <v>44802</v>
+        <v>44857</v>
       </c>
       <c r="Y33" s="3">
-        <v>44802</v>
+        <v>44857</v>
       </c>
       <c r="Z33" s="4">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="AA33" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB33" s="4">
         <v>0</v>
       </c>
       <c r="AC33" s="3">
-        <v>44805</v>
-      </c>
-      <c r="AD33" s="14" t="s">
-        <v>217</v>
+        <v>44860</v>
+      </c>
+      <c r="AD33" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="AE33" s="4">
-        <v>64</v>
-      </c>
-      <c r="AF33" s="14" t="s">
-        <v>191</v>
+        <v>93</v>
+      </c>
+      <c r="AF33" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG33" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH33" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI33" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ33" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ33" s="5"/>
     </row>
     <row r="34" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C34" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>91</v>
@@ -4391,22 +4490,22 @@
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>101</v>
@@ -4436,61 +4535,61 @@
         <v>122</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="W34" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X34" s="3">
-        <v>44805</v>
+        <v>44860</v>
       </c>
       <c r="Y34" s="3">
-        <v>44805</v>
+        <v>44860</v>
       </c>
       <c r="Z34" s="4">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="AA34" s="4">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AB34" s="4">
         <v>0</v>
       </c>
       <c r="AC34" s="3">
-        <v>44805</v>
-      </c>
-      <c r="AD34" s="14" t="s">
-        <v>218</v>
+        <v>44865</v>
+      </c>
+      <c r="AD34" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="AE34" s="4">
-        <v>65</v>
-      </c>
-      <c r="AF34" s="14" t="s">
-        <v>191</v>
+        <v>94</v>
+      </c>
+      <c r="AF34" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG34" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH34" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI34" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ34" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ34" s="5"/>
     </row>
     <row r="35" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C35" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>91</v>
@@ -4499,22 +4598,22 @@
         <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>101</v>
@@ -4544,97 +4643,97 @@
         <v>122</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="W35" s="4" t="s">
         <v>121</v>
       </c>
       <c r="X35" s="3">
-        <v>44813</v>
+        <v>44861</v>
       </c>
       <c r="Y35" s="3">
-        <v>44813</v>
+        <v>44861</v>
       </c>
       <c r="Z35" s="4">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="AA35" s="4">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="AB35" s="4">
         <v>0</v>
       </c>
       <c r="AC35" s="3">
-        <v>44818</v>
-      </c>
-      <c r="AD35" s="14" t="s">
-        <v>219</v>
+        <v>44868</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="AE35" s="4">
-        <v>66</v>
-      </c>
-      <c r="AF35" s="14" t="s">
-        <v>191</v>
+        <v>95</v>
+      </c>
+      <c r="AF35" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG35" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH35" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI35" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ35" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ35" s="5"/>
     </row>
     <row r="36" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C36" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="4">
-        <v>7</v>
+      <c r="E36" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="4">
         <v>0</v>
@@ -4652,51 +4751,1455 @@
         <v>122</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="X36" s="3">
-        <v>44822</v>
+        <v>44834</v>
       </c>
       <c r="Y36" s="3">
-        <v>44822</v>
+        <v>44834</v>
       </c>
       <c r="Z36" s="4">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="AA36" s="4">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="AB36" s="4">
         <v>0</v>
       </c>
       <c r="AC36" s="3">
-        <v>44825</v>
-      </c>
-      <c r="AD36" s="14" t="s">
-        <v>220</v>
+        <v>44839</v>
+      </c>
+      <c r="AD36" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="AE36" s="4">
-        <v>67</v>
-      </c>
-      <c r="AF36" s="14" t="s">
-        <v>191</v>
+        <v>96</v>
+      </c>
+      <c r="AF36" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="AG36" s="4" t="s">
         <v>114</v>
       </c>
       <c r="AH36" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AI36" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AJ36" s="8"/>
+        <v>44936</v>
+      </c>
+      <c r="AJ36" s="5"/>
+    </row>
+    <row r="37" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="4">
+        <v>12</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="X37" s="3">
+        <v>44845</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>44845</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>97</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>719</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>44847</v>
+      </c>
+      <c r="AD37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>97</v>
+      </c>
+      <c r="AF37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ37" s="9"/>
+    </row>
+    <row r="38" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X38" s="3">
+        <v>44841</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>44841</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>98</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>58</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>44846</v>
+      </c>
+      <c r="AD38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>98</v>
+      </c>
+      <c r="AF38" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ38" s="9"/>
+    </row>
+    <row r="39" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X39" s="3">
+        <v>44847</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>44847</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>99</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>58</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>44852</v>
+      </c>
+      <c r="AD39" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>99</v>
+      </c>
+      <c r="AF39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ39" s="9"/>
+    </row>
+    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X40" s="3">
+        <v>44869</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>44869</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>100</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>180</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>44874</v>
+      </c>
+      <c r="AD40" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>100</v>
+      </c>
+      <c r="AF40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ40" s="9"/>
+    </row>
+    <row r="41" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X41" s="3">
+        <v>44880</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>44880</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>101</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>201</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>44883</v>
+      </c>
+      <c r="AD41" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>101</v>
+      </c>
+      <c r="AF41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ41" s="9"/>
+    </row>
+    <row r="42" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X42" s="3">
+        <v>44881</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>44881</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>102</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>75</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>44886</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>102</v>
+      </c>
+      <c r="AF42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ42" s="9"/>
+    </row>
+    <row r="43" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="4">
+        <v>7</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O43" s="4">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X43" s="3">
+        <v>44884</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>44884</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>103</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>361.01</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>44888</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE43" s="4">
+        <v>103</v>
+      </c>
+      <c r="AF43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ43" s="9"/>
+    </row>
+    <row r="44" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O44" s="4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X44" s="3">
+        <v>44888</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>44888</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>104</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>75</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>44893</v>
+      </c>
+      <c r="AD44" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>104</v>
+      </c>
+      <c r="AF44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ44" s="9"/>
+    </row>
+    <row r="45" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="4">
+        <v>7</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X45" s="3">
+        <v>44889</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>44889</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>105</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>201</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>44894</v>
+      </c>
+      <c r="AD45" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE45" s="4">
+        <v>105</v>
+      </c>
+      <c r="AF45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI45" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ45" s="9"/>
+    </row>
+    <row r="46" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="4">
+        <v>7</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O46" s="4">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X46" s="3">
+        <v>44891</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>44891</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>106</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>201</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>44895</v>
+      </c>
+      <c r="AD46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE46" s="4">
+        <v>106</v>
+      </c>
+      <c r="AF46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ46" s="9"/>
+    </row>
+    <row r="47" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O47" s="4">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X47" s="3">
+        <v>44892</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>44892</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>107</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>85</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>44895</v>
+      </c>
+      <c r="AD47" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE47" s="4">
+        <v>107</v>
+      </c>
+      <c r="AF47" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ47" s="9"/>
+    </row>
+    <row r="48" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="4">
+        <v>7</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O48" s="4">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X48" s="3">
+        <v>44892</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>44892</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>108</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>200.67</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>44895</v>
+      </c>
+      <c r="AD48" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE48" s="4">
+        <v>108</v>
+      </c>
+      <c r="AF48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ48" s="9"/>
+    </row>
+    <row r="49" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="4">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O49" s="4">
+        <v>1</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X49" s="3">
+        <v>44882</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>44882</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>109</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>85</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>44887</v>
+      </c>
+      <c r="AD49" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE49" s="4">
+        <v>109</v>
+      </c>
+      <c r="AF49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AJ49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4709,55 +6212,109 @@
     <mergeCell ref="G2:L2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D200" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D200">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L8:L200" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L8:L200">
       <formula1>Hidden_211</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N200" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N200">
       <formula1>Hidden_313</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AF8" r:id="rId1" xr:uid="{7291CB56-A3B6-44C4-9F32-C99C1674573F}"/>
-    <hyperlink ref="AF9:AF36" r:id="rId2" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/09/manual_de_gastos.pdf" xr:uid="{B61427F3-C084-4428-9D51-129A44492A58}"/>
-    <hyperlink ref="AD8" r:id="rId3" xr:uid="{CAE4EC42-83E2-403C-AC9A-D334B37B0671}"/>
-    <hyperlink ref="AD9" r:id="rId4" xr:uid="{DD3EB110-D662-453D-91BF-F5F2C5A0D133}"/>
-    <hyperlink ref="AD10" r:id="rId5" xr:uid="{B6AA6D51-8392-4700-8DD3-1A4FBAE54702}"/>
-    <hyperlink ref="AD11" r:id="rId6" xr:uid="{373BF802-C464-4CA2-ACD7-C7863B074176}"/>
-    <hyperlink ref="AD12" r:id="rId7" xr:uid="{0887EF77-C2B7-48D7-B0D3-E3F002F5F037}"/>
-    <hyperlink ref="AD13" r:id="rId8" xr:uid="{BD8048BC-5812-4D23-9043-AFBB997B9D91}"/>
-    <hyperlink ref="AD14" r:id="rId9" xr:uid="{1A712902-7E81-4184-B5E4-80C6A8EA9D54}"/>
-    <hyperlink ref="AD15" r:id="rId10" xr:uid="{E7B65955-70E4-434D-B8E0-8B0F2DDDF553}"/>
-    <hyperlink ref="AD16" r:id="rId11" xr:uid="{83064063-8D2A-47D9-B546-FFB0B6D6BEAA}"/>
-    <hyperlink ref="AD17" r:id="rId12" xr:uid="{987A1A35-9325-4EBA-A85A-7041AB766A60}"/>
-    <hyperlink ref="AD18" r:id="rId13" xr:uid="{84F81E94-5B0E-445E-8C03-8703F8F9936F}"/>
-    <hyperlink ref="AD19" r:id="rId14" xr:uid="{A101B65C-5188-4FB0-85A1-A07DE6C93D45}"/>
-    <hyperlink ref="AD20" r:id="rId15" xr:uid="{091DD66B-BF98-4FD4-A393-52B993CAF4DA}"/>
-    <hyperlink ref="AD21" r:id="rId16" xr:uid="{4B4362FB-E146-4B26-89BB-6C30594513CD}"/>
-    <hyperlink ref="AD22" r:id="rId17" xr:uid="{265B2572-0CA0-491A-898C-950637FEF1B4}"/>
-    <hyperlink ref="AD23" r:id="rId18" xr:uid="{668A270D-8643-4023-929E-40F7F5A5C983}"/>
-    <hyperlink ref="AD24" r:id="rId19" xr:uid="{23D62C03-D2B9-4AB8-8024-7548CC7ABA45}"/>
-    <hyperlink ref="AD25" r:id="rId20" xr:uid="{63DE1567-F36D-44D2-937E-4CF98C84EA76}"/>
-    <hyperlink ref="AD26" r:id="rId21" xr:uid="{F4F3DA1E-E5A0-4001-B780-AA685BB75476}"/>
-    <hyperlink ref="AD27" r:id="rId22" xr:uid="{3FA11591-0341-4C60-8184-DAFFF3152919}"/>
-    <hyperlink ref="AD28" r:id="rId23" xr:uid="{FD790DFA-D0ED-4ACF-A578-79338F76DED5}"/>
-    <hyperlink ref="AD29" r:id="rId24" xr:uid="{3A164033-6285-4222-B4E3-94F23389F75C}"/>
-    <hyperlink ref="AD30" r:id="rId25" xr:uid="{5F02378B-6AB3-4E8F-B7B2-8C9E00B7073A}"/>
-    <hyperlink ref="AD31" r:id="rId26" xr:uid="{33C1DC63-A1CF-4594-9B74-43F212D02467}"/>
-    <hyperlink ref="AD32" r:id="rId27" xr:uid="{959ECF26-D9A2-4B58-A38F-7C9E2E9EDD3E}"/>
-    <hyperlink ref="AD33" r:id="rId28" xr:uid="{512797AC-4C22-4215-A994-56277BF94062}"/>
-    <hyperlink ref="AD34" r:id="rId29" xr:uid="{4646D9D3-5B09-40A1-8261-3FE795610F9F}"/>
-    <hyperlink ref="AD35" r:id="rId30" xr:uid="{B50DD044-07E4-4DAB-B674-374C7839FE06}"/>
-    <hyperlink ref="AD36" r:id="rId31" xr:uid="{EA7BB897-84EA-457E-BB12-B281A680E7BC}"/>
+    <hyperlink ref="AF8" r:id="rId1"/>
+    <hyperlink ref="AF9" r:id="rId2"/>
+    <hyperlink ref="AF10" r:id="rId3"/>
+    <hyperlink ref="AF11" r:id="rId4"/>
+    <hyperlink ref="AF12" r:id="rId5"/>
+    <hyperlink ref="AF13" r:id="rId6"/>
+    <hyperlink ref="AF14" r:id="rId7"/>
+    <hyperlink ref="AF15" r:id="rId8"/>
+    <hyperlink ref="AF16" r:id="rId9"/>
+    <hyperlink ref="AF17" r:id="rId10"/>
+    <hyperlink ref="AF18" r:id="rId11"/>
+    <hyperlink ref="AF19" r:id="rId12"/>
+    <hyperlink ref="AF20" r:id="rId13"/>
+    <hyperlink ref="AF21" r:id="rId14"/>
+    <hyperlink ref="AF22" r:id="rId15"/>
+    <hyperlink ref="AF23" r:id="rId16"/>
+    <hyperlink ref="AF24" r:id="rId17"/>
+    <hyperlink ref="AF25" r:id="rId18"/>
+    <hyperlink ref="AF26" r:id="rId19"/>
+    <hyperlink ref="AF27" r:id="rId20"/>
+    <hyperlink ref="AF28" r:id="rId21"/>
+    <hyperlink ref="AF29" r:id="rId22"/>
+    <hyperlink ref="AF30" r:id="rId23"/>
+    <hyperlink ref="AF31" r:id="rId24"/>
+    <hyperlink ref="AF32" r:id="rId25"/>
+    <hyperlink ref="AF33" r:id="rId26"/>
+    <hyperlink ref="AF34" r:id="rId27"/>
+    <hyperlink ref="AF35" r:id="rId28"/>
+    <hyperlink ref="AF36" r:id="rId29"/>
+    <hyperlink ref="AF37" r:id="rId30"/>
+    <hyperlink ref="AF38" r:id="rId31"/>
+    <hyperlink ref="AF39" r:id="rId32"/>
+    <hyperlink ref="AF40" r:id="rId33"/>
+    <hyperlink ref="AF41" r:id="rId34"/>
+    <hyperlink ref="AF42" r:id="rId35"/>
+    <hyperlink ref="AF43" r:id="rId36"/>
+    <hyperlink ref="AF44" r:id="rId37"/>
+    <hyperlink ref="AF45" r:id="rId38"/>
+    <hyperlink ref="AF46" r:id="rId39"/>
+    <hyperlink ref="AF47" r:id="rId40"/>
+    <hyperlink ref="AF48" r:id="rId41"/>
+    <hyperlink ref="AF49" r:id="rId42"/>
+    <hyperlink ref="AD8" r:id="rId43"/>
+    <hyperlink ref="AD9" r:id="rId44"/>
+    <hyperlink ref="AD10" r:id="rId45"/>
+    <hyperlink ref="AD11" r:id="rId46"/>
+    <hyperlink ref="AD12" r:id="rId47"/>
+    <hyperlink ref="AD13" r:id="rId48"/>
+    <hyperlink ref="AD14" r:id="rId49"/>
+    <hyperlink ref="AD15" r:id="rId50"/>
+    <hyperlink ref="AD16" r:id="rId51"/>
+    <hyperlink ref="AD17" r:id="rId52"/>
+    <hyperlink ref="AD18" r:id="rId53"/>
+    <hyperlink ref="AD19" r:id="rId54"/>
+    <hyperlink ref="AD20" r:id="rId55"/>
+    <hyperlink ref="AD21" r:id="rId56"/>
+    <hyperlink ref="AD22" r:id="rId57"/>
+    <hyperlink ref="AD23" r:id="rId58"/>
+    <hyperlink ref="AD24" r:id="rId59"/>
+    <hyperlink ref="AD25" r:id="rId60"/>
+    <hyperlink ref="AD26" r:id="rId61"/>
+    <hyperlink ref="AD27" r:id="rId62"/>
+    <hyperlink ref="AD28" r:id="rId63"/>
+    <hyperlink ref="AD29" r:id="rId64"/>
+    <hyperlink ref="AD30" r:id="rId65"/>
+    <hyperlink ref="AD31" r:id="rId66"/>
+    <hyperlink ref="AD32" r:id="rId67"/>
+    <hyperlink ref="AD33" r:id="rId68"/>
+    <hyperlink ref="AD34" r:id="rId69"/>
+    <hyperlink ref="AD35" r:id="rId70"/>
+    <hyperlink ref="AD36" r:id="rId71"/>
+    <hyperlink ref="AD37" r:id="rId72"/>
+    <hyperlink ref="AD38" r:id="rId73"/>
+    <hyperlink ref="AD39" r:id="rId74"/>
+    <hyperlink ref="AD40" r:id="rId75"/>
+    <hyperlink ref="AD41" r:id="rId76"/>
+    <hyperlink ref="AD42" r:id="rId77"/>
+    <hyperlink ref="AD43" r:id="rId78"/>
+    <hyperlink ref="AD44" r:id="rId79"/>
+    <hyperlink ref="AD45" r:id="rId80"/>
+    <hyperlink ref="AD46" r:id="rId81"/>
+    <hyperlink ref="AD47" r:id="rId82"/>
+    <hyperlink ref="AD48" r:id="rId83"/>
+    <hyperlink ref="AD49" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId85"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4825,7 +6382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4848,7 +6405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4871,17 +6428,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="79.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4924,27 +6481,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4">
         <v>375001</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>161</v>
+      <c r="C4" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D4" s="4">
-        <v>75</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4">
         <v>375001</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>161</v>
+      <c r="C5" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D5" s="4">
         <v>75</v>
@@ -4952,181 +6509,181 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4">
         <v>375001</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>161</v>
+      <c r="C6" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D6" s="4">
-        <v>201</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4">
         <v>375001</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>161</v>
+      <c r="C7" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D7" s="4">
-        <v>461.01</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4">
         <v>375001</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>161</v>
+      <c r="C8" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D8" s="4">
-        <v>234</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <v>375001</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>161</v>
+      <c r="C9" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D9" s="4">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B10" s="4">
         <v>375001</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>161</v>
+      <c r="C10" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D10" s="4">
-        <v>155</v>
+        <v>1839.62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <v>375001</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>161</v>
+      <c r="C11" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D11" s="4">
-        <v>201</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4">
         <v>375001</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>161</v>
+      <c r="C12" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D12" s="4">
-        <v>453</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <v>375001</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>161</v>
+      <c r="C13" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D13" s="4">
-        <v>492</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B14" s="4">
         <v>375001</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>161</v>
+      <c r="C14" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D14" s="4">
-        <v>120</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4">
         <v>375001</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>161</v>
+      <c r="C15" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D15" s="4">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4">
         <v>375001</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>161</v>
+      <c r="C16" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D16" s="4">
-        <v>201</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4">
         <v>375001</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>161</v>
+      <c r="C17" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D17" s="4">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4">
         <v>375001</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>161</v>
+      <c r="C18" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D18" s="4">
         <v>85</v>
@@ -5134,198 +6691,380 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B19" s="4">
         <v>375001</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>161</v>
+      <c r="C19" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D19" s="4">
-        <v>317</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B20" s="4">
         <v>375001</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>161</v>
+      <c r="C20" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D20" s="4">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4">
         <v>375001</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>161</v>
+      <c r="C21" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D21" s="4">
-        <v>317</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B22" s="4">
         <v>375001</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>161</v>
+      <c r="C22" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D22" s="4">
-        <v>317</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B23" s="4">
         <v>375001</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>161</v>
+      <c r="C23" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D23" s="4">
-        <v>85</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B24" s="4">
         <v>375001</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>161</v>
+      <c r="C24" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D24" s="4">
-        <v>317</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4">
         <v>375001</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>161</v>
+      <c r="C25" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D25" s="4">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B26" s="4">
         <v>375001</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>161</v>
+      <c r="C26" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D26" s="4">
-        <v>85</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4">
         <v>375001</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>161</v>
+      <c r="C27" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D27" s="4">
-        <v>75</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B28" s="4">
         <v>375001</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>161</v>
+      <c r="C28" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D28" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B29" s="4">
         <v>375001</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>161</v>
+      <c r="C29" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D29" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B30" s="4">
         <v>375001</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>161</v>
+      <c r="C30" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D30" s="4">
-        <v>75</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B31" s="4">
         <v>375001</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>161</v>
+      <c r="C31" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D31" s="4">
-        <v>269</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B32" s="4">
         <v>375001</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>161</v>
+      <c r="C32" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D32" s="4">
-        <v>317</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>97</v>
+      </c>
+      <c r="B33" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="4">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>98</v>
+      </c>
+      <c r="B34" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>99</v>
+      </c>
+      <c r="B35" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>100</v>
+      </c>
+      <c r="B36" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>101</v>
+      </c>
+      <c r="B37" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>102</v>
+      </c>
+      <c r="B38" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>103</v>
+      </c>
+      <c r="B39" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="4">
+        <v>361.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>104</v>
+      </c>
+      <c r="B40" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>105</v>
+      </c>
+      <c r="B41" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>106</v>
+      </c>
+      <c r="B42" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>107</v>
+      </c>
+      <c r="B43" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>108</v>
+      </c>
+      <c r="B44" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="4">
+        <v>200.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>109</v>
+      </c>
+      <c r="B45" s="4">
+        <v>375001</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="4">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5334,11 +7073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,267 +7106,384 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>39</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>162</v>
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>40</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>163</v>
+        <v>69</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>41</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>164</v>
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>165</v>
+        <v>71</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>166</v>
+        <v>72</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>44</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>167</v>
+        <v>73</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>168</v>
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>46</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>169</v>
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>47</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>170</v>
+        <v>76</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>48</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>171</v>
+        <v>77</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>49</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>172</v>
+        <v>78</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>50</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>173</v>
+        <v>79</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>51</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>174</v>
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>52</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>175</v>
+        <v>81</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>53</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>176</v>
+        <v>82</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>54</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>177</v>
+        <v>83</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>55</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>178</v>
+        <v>84</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>56</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>179</v>
+        <v>85</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>57</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>180</v>
+        <v>86</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>58</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>181</v>
+        <v>87</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>59</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>182</v>
+        <v>88</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>60</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>183</v>
+        <v>89</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>61</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>184</v>
+        <v>90</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>62</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>185</v>
+        <v>91</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>63</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>186</v>
+        <v>92</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>64</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>187</v>
+        <v>93</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>65</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>188</v>
+        <v>94</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>66</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>189</v>
+        <v>95</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>67</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>190</v>
+        <v>96</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>97</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>98</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>99</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>100</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>101</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>102</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>103</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>104</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>105</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>106</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>107</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>108</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>109</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{176F9F7B-215F-499B-9CCB-3754848784F9}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{328C7251-1CF4-4944-89F1-88C2827F3423}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{F295A0B4-3286-4269-89EE-9FBCBA726CBA}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{8E49127B-8327-4DF2-9C69-76113681DD09}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{518CB4E5-F6BD-4ABA-9C66-D8B0777F8E09}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{6F6BBDB1-A73D-4E5D-AA75-A1FC6810D168}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{EC43FC71-2748-44AA-8B9B-A7D3C98089C8}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{42360344-90D7-4BFA-BC12-8F5831CFB483}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{542A1885-09D0-4146-8AF9-15633240CF07}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{EF41D8FC-8DC5-44DD-AA9C-8759BF457C1D}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{A19E4248-944E-45F9-8125-9FF6C773813C}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{53C52ED9-710F-4905-9F4E-DD5056EBF99E}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{8B3296C6-64BB-4CB1-82CC-35780B6F250B}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{E050ADBA-D0F1-4242-98BB-2CC7105A5FA4}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{A2DEC5DD-6200-45E5-9515-3937B850E982}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{672F54C7-D6CC-4406-8D4A-C5BCBA98B0DC}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{72CAE55C-BBFB-4F15-B89D-A02485167D76}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{DA51B650-4130-453F-802B-DB867E1FAE9E}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{0CD2B56E-B16A-45CF-8AA1-72E258249883}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{92908AAE-C47B-49F7-A465-8BA62030F3ED}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{D2FDD9B9-008C-464C-957A-BC95EE32C3D9}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{A0488ED4-8057-4C6A-B6F2-51F011F43EBB}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{0674AE02-1460-458F-8482-6DBC0DA52A24}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{4A8C36D0-B481-4710-BE32-49F0100E896B}"/>
-    <hyperlink ref="B28" r:id="rId25" xr:uid="{C7A529BB-A4B6-4B46-B283-A54EF8E1ED49}"/>
-    <hyperlink ref="B29" r:id="rId26" xr:uid="{91E2B820-2831-4AF6-B267-FF9D9E73FEE3}"/>
-    <hyperlink ref="B30" r:id="rId27" xr:uid="{005DE1AB-254B-4206-BB79-56B6F7084C27}"/>
-    <hyperlink ref="B31" r:id="rId28" xr:uid="{9BED200F-21FF-4B36-A57E-B5FE297BB9AC}"/>
-    <hyperlink ref="B32" r:id="rId29" xr:uid="{8EC1DFF6-EF1B-46FD-856F-7C31FB5F6E26}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B18" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B34" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
+    <hyperlink ref="B37" r:id="rId34"/>
+    <hyperlink ref="B38" r:id="rId35"/>
+    <hyperlink ref="B39" r:id="rId36"/>
+    <hyperlink ref="B40" r:id="rId37"/>
+    <hyperlink ref="B41" r:id="rId38"/>
+    <hyperlink ref="B42" r:id="rId39"/>
+    <hyperlink ref="B43" r:id="rId40"/>
+    <hyperlink ref="B44" r:id="rId41"/>
+    <hyperlink ref="B45" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f09UPPachuca.xlsx
+++ b/xlsx/a69_f09UPPachuca.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="243">
   <si>
     <t>44223</t>
   </si>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t>Zumpango</t>
-  </si>
-  <si>
-    <t>21a</t>
   </si>
   <si>
     <t>Querétaro</t>
@@ -1178,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1188,10 +1185,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E3" sqref="E3"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,13 +1654,13 @@
         <v>98</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>130</v>
@@ -1672,10 +1669,10 @@
         <v>129</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>101</v>
@@ -1730,7 +1727,7 @@
         <v>44936</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE8" s="4">
         <v>1</v>
@@ -1748,7 +1745,7 @@
         <v>45026</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -1765,13 +1762,13 @@
         <v>98</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>130</v>
@@ -1838,7 +1835,7 @@
         <v>44939</v>
       </c>
       <c r="AD9" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE9" s="4">
         <v>2</v>
@@ -1856,7 +1853,7 @@
         <v>45026</v>
       </c>
       <c r="AJ9" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -1876,10 +1873,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>130</v>
@@ -1891,7 +1888,7 @@
         <v>118</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>101</v>
@@ -1921,10 +1918,10 @@
         <v>120</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>119</v>
@@ -1946,7 +1943,7 @@
         <v>44949</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AE10" s="4">
         <v>3</v>
@@ -1964,7 +1961,7 @@
         <v>45026</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -1981,13 +1978,13 @@
         <v>98</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>130</v>
@@ -1996,10 +1993,10 @@
         <v>129</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>101</v>
@@ -2054,7 +2051,7 @@
         <v>44949</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AE11" s="4">
         <v>4</v>
@@ -2072,7 +2069,7 @@
         <v>45026</v>
       </c>
       <c r="AJ11" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -2089,25 +2086,25 @@
         <v>98</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>101</v>
@@ -2162,7 +2159,7 @@
         <v>44951</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE12" s="4">
         <v>5</v>
@@ -2180,7 +2177,7 @@
         <v>45026</v>
       </c>
       <c r="AJ12" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -2197,13 +2194,13 @@
         <v>98</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>130</v>
@@ -2212,7 +2209,7 @@
         <v>126</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>128</v>
@@ -2270,7 +2267,7 @@
         <v>44952</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE13" s="4">
         <v>6</v>
@@ -2288,7 +2285,7 @@
         <v>45026</v>
       </c>
       <c r="AJ13" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -2308,10 +2305,10 @@
         <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>130</v>
@@ -2320,10 +2317,10 @@
         <v>117</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>101</v>
@@ -2378,7 +2375,7 @@
         <v>44956</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AE14" s="4">
         <v>7</v>
@@ -2396,7 +2393,7 @@
         <v>45026</v>
       </c>
       <c r="AJ14" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -2413,25 +2410,25 @@
         <v>98</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>101</v>
@@ -2486,7 +2483,7 @@
         <v>44956</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE15" s="4">
         <v>8</v>
@@ -2504,7 +2501,7 @@
         <v>45026</v>
       </c>
       <c r="AJ15" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -2521,13 +2518,13 @@
         <v>98</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>130</v>
@@ -2594,7 +2591,7 @@
         <v>44957</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AE16" s="4">
         <v>9</v>
@@ -2612,7 +2609,7 @@
         <v>45026</v>
       </c>
       <c r="AJ16" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -2629,13 +2626,13 @@
         <v>98</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>130</v>
@@ -2644,10 +2641,10 @@
         <v>129</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>101</v>
@@ -2702,7 +2699,7 @@
         <v>44958</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE17" s="4">
         <v>10</v>
@@ -2720,7 +2717,7 @@
         <v>45026</v>
       </c>
       <c r="AJ17" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -2740,10 +2737,10 @@
         <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>130</v>
@@ -2752,10 +2749,10 @@
         <v>117</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>101</v>
@@ -2810,7 +2807,7 @@
         <v>44959</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE18" s="4">
         <v>11</v>
@@ -2828,7 +2825,7 @@
         <v>45026</v>
       </c>
       <c r="AJ18" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -2845,13 +2842,13 @@
         <v>98</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>130</v>
@@ -2860,10 +2857,10 @@
         <v>129</v>
       </c>
       <c r="J19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>101</v>
@@ -2918,7 +2915,7 @@
         <v>44960</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE19" s="4">
         <v>12</v>
@@ -2936,7 +2933,7 @@
         <v>45026</v>
       </c>
       <c r="AJ19" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -2953,13 +2950,13 @@
         <v>98</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>130</v>
@@ -2968,10 +2965,10 @@
         <v>129</v>
       </c>
       <c r="J20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>101</v>
@@ -3026,7 +3023,7 @@
         <v>44974</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE20" s="4">
         <v>13</v>
@@ -3044,7 +3041,7 @@
         <v>45026</v>
       </c>
       <c r="AJ20" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -3061,13 +3058,13 @@
         <v>98</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>130</v>
@@ -3134,7 +3131,7 @@
         <v>44977</v>
       </c>
       <c r="AD21" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE21" s="4">
         <v>14</v>
@@ -3152,7 +3149,7 @@
         <v>45026</v>
       </c>
       <c r="AJ21" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -3169,25 +3166,25 @@
         <v>98</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>101</v>
@@ -3242,7 +3239,7 @@
         <v>44978</v>
       </c>
       <c r="AD22" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE22" s="4">
         <v>15</v>
@@ -3260,7 +3257,7 @@
         <v>45026</v>
       </c>
       <c r="AJ22" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -3280,10 +3277,10 @@
         <v>7</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>130</v>
@@ -3292,10 +3289,10 @@
         <v>117</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>101</v>
@@ -3328,7 +3325,7 @@
         <v>121</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W23" s="4" t="s">
         <v>119</v>
@@ -3350,7 +3347,7 @@
         <v>44978</v>
       </c>
       <c r="AD23" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE23" s="4">
         <v>16</v>
@@ -3368,7 +3365,7 @@
         <v>45026</v>
       </c>
       <c r="AJ23" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -3385,13 +3382,13 @@
         <v>98</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>130</v>
@@ -3400,10 +3397,10 @@
         <v>129</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>101</v>
@@ -3458,7 +3455,7 @@
         <v>44984</v>
       </c>
       <c r="AD24" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AE24" s="4">
         <v>17</v>
@@ -3476,7 +3473,7 @@
         <v>45026</v>
       </c>
       <c r="AJ24" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -3493,13 +3490,13 @@
         <v>98</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>130</v>
@@ -3544,7 +3541,7 @@
         <v>121</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W25" s="4" t="s">
         <v>119</v>
@@ -3566,7 +3563,7 @@
         <v>44984</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE25" s="4">
         <v>18</v>
@@ -3584,7 +3581,7 @@
         <v>45026</v>
       </c>
       <c r="AJ25" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -3601,13 +3598,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>130</v>
@@ -3652,7 +3649,7 @@
         <v>121</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W26" s="4" t="s">
         <v>119</v>
@@ -3674,7 +3671,7 @@
         <v>44984</v>
       </c>
       <c r="AD26" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE26" s="4">
         <v>19</v>
@@ -3692,7 +3689,7 @@
         <v>45026</v>
       </c>
       <c r="AJ26" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -3709,25 +3706,25 @@
         <v>98</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>101</v>
@@ -3760,7 +3757,7 @@
         <v>121</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W27" s="4" t="s">
         <v>119</v>
@@ -3782,7 +3779,7 @@
         <v>44984</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE27" s="4">
         <v>20</v>
@@ -3800,7 +3797,7 @@
         <v>45026</v>
       </c>
       <c r="AJ27" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -3817,13 +3814,13 @@
         <v>98</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>130</v>
@@ -3890,7 +3887,7 @@
         <v>44984</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE28" s="4">
         <v>21</v>
@@ -3923,13 +3920,13 @@
         <v>98</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G29" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>130</v>
@@ -3974,7 +3971,7 @@
         <v>121</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W29" s="4" t="s">
         <v>119</v>
@@ -3985,8 +3982,8 @@
       <c r="Y29" s="5">
         <v>44980</v>
       </c>
-      <c r="Z29" s="4" t="s">
-        <v>136</v>
+      <c r="Z29" s="4">
+        <v>21</v>
       </c>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4">
@@ -3996,10 +3993,10 @@
         <v>44985</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE29" s="4" t="s">
-        <v>136</v>
+        <v>192</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>21</v>
       </c>
       <c r="AF29" s="6" t="s">
         <v>116</v>
@@ -4014,7 +4011,7 @@
         <v>45026</v>
       </c>
       <c r="AJ29" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -4031,13 +4028,13 @@
         <v>98</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>130</v>
@@ -4046,10 +4043,10 @@
         <v>129</v>
       </c>
       <c r="J30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>101</v>
@@ -4082,7 +4079,7 @@
         <v>121</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W30" s="4" t="s">
         <v>119</v>
@@ -4104,7 +4101,7 @@
         <v>44986</v>
       </c>
       <c r="AD30" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE30" s="4">
         <v>22</v>
@@ -4122,7 +4119,7 @@
         <v>45026</v>
       </c>
       <c r="AJ30" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -4142,19 +4139,19 @@
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>132</v>
@@ -4212,7 +4209,7 @@
         <v>44986</v>
       </c>
       <c r="AD31" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE31" s="4">
         <v>23</v>
@@ -4245,22 +4242,22 @@
         <v>98</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>132</v>
@@ -4269,7 +4266,7 @@
         <v>101</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>103</v>
@@ -4293,13 +4290,13 @@
         <v>120</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X32" s="5">
         <v>44985</v>
@@ -4318,7 +4315,7 @@
         <v>44988</v>
       </c>
       <c r="AD32" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AE32" s="4">
         <v>24</v>
@@ -4351,31 +4348,31 @@
         <v>98</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>103</v>
@@ -4399,13 +4396,13 @@
         <v>120</v>
       </c>
       <c r="U33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="W33" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="X33" s="5">
         <v>44981</v>
@@ -4424,7 +4421,7 @@
         <v>44987</v>
       </c>
       <c r="AD33" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AE33" s="4">
         <v>25</v>
@@ -4442,7 +4439,7 @@
         <v>45026</v>
       </c>
       <c r="AJ33" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -4462,10 +4459,10 @@
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>130</v>
@@ -4532,7 +4529,7 @@
         <v>44991</v>
       </c>
       <c r="AD34" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE34" s="4">
         <v>26</v>
@@ -4550,7 +4547,7 @@
         <v>45026</v>
       </c>
       <c r="AJ34" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -4567,13 +4564,13 @@
         <v>98</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>130</v>
@@ -4582,10 +4579,10 @@
         <v>129</v>
       </c>
       <c r="J35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>101</v>
@@ -4640,7 +4637,7 @@
         <v>44992</v>
       </c>
       <c r="AD35" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE35" s="4">
         <v>27</v>
@@ -4658,7 +4655,7 @@
         <v>45026</v>
       </c>
       <c r="AJ35" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -4675,13 +4672,13 @@
         <v>98</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>130</v>
@@ -4726,7 +4723,7 @@
         <v>121</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W36" s="4" t="s">
         <v>119</v>
@@ -4748,7 +4745,7 @@
         <v>44993</v>
       </c>
       <c r="AD36" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE36" s="4">
         <v>28</v>
@@ -4766,7 +4763,7 @@
         <v>45026</v>
       </c>
       <c r="AJ36" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -4786,10 +4783,10 @@
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>130</v>
@@ -4798,10 +4795,10 @@
         <v>117</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>101</v>
@@ -4856,7 +4853,7 @@
         <v>44995</v>
       </c>
       <c r="AD37" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AE37" s="4">
         <v>29</v>
@@ -4874,7 +4871,7 @@
         <v>45026</v>
       </c>
       <c r="AJ37" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -4891,13 +4888,13 @@
         <v>98</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G38" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>130</v>
@@ -4939,10 +4936,10 @@
         <v>120</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W38" s="4" t="s">
         <v>119</v>
@@ -4964,7 +4961,7 @@
         <v>44995</v>
       </c>
       <c r="AD38" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AE38" s="4">
         <v>30</v>
@@ -4982,7 +4979,7 @@
         <v>45026</v>
       </c>
       <c r="AJ38" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -4999,13 +4996,13 @@
         <v>98</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="G39" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>130</v>
@@ -5072,7 +5069,7 @@
         <v>44998</v>
       </c>
       <c r="AD39" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE39" s="4">
         <v>31</v>
@@ -5105,13 +5102,13 @@
         <v>98</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G40" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>130</v>
@@ -5120,10 +5117,10 @@
         <v>129</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>101</v>
@@ -5178,7 +5175,7 @@
         <v>44998</v>
       </c>
       <c r="AD40" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE40" s="4">
         <v>32</v>
@@ -5196,7 +5193,7 @@
         <v>45026</v>
       </c>
       <c r="AJ40" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -5213,25 +5210,25 @@
         <v>98</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>101</v>
@@ -5286,7 +5283,7 @@
         <v>44999</v>
       </c>
       <c r="AD41" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE41" s="4">
         <v>33</v>
@@ -5304,7 +5301,7 @@
         <v>45026</v>
       </c>
       <c r="AJ41" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -5321,13 +5318,13 @@
         <v>98</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G42" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>130</v>
@@ -5394,7 +5391,7 @@
         <v>44999</v>
       </c>
       <c r="AD42" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE42" s="4">
         <v>34</v>
@@ -5412,7 +5409,7 @@
         <v>45026</v>
       </c>
       <c r="AJ42" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:36" ht="30" x14ac:dyDescent="0.25">
@@ -5429,25 +5426,25 @@
         <v>98</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G43" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>101</v>
@@ -5502,7 +5499,7 @@
         <v>45000</v>
       </c>
       <c r="AD43" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE43" s="4">
         <v>35</v>
@@ -5520,7 +5517,7 @@
         <v>45026</v>
       </c>
       <c r="AJ43" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5744,7 +5741,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6086,8 +6083,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>136</v>
+      <c r="A25" s="4">
+        <v>21</v>
       </c>
       <c r="B25" s="4">
         <v>375001</v>
@@ -6306,7 +6303,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6338,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6346,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6354,7 +6351,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6362,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6370,7 +6367,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6378,7 +6375,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6386,7 +6383,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6394,7 +6391,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6402,7 +6399,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6410,7 +6407,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6418,7 +6415,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6426,7 +6423,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6434,7 +6431,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6442,7 +6439,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6450,7 +6447,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6458,7 +6455,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6466,7 +6463,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6474,7 +6471,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6482,7 +6479,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6490,7 +6487,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6498,21 +6495,23 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="10"/>
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6520,7 +6519,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6528,7 +6527,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -6536,7 +6535,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -6544,7 +6543,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -6552,7 +6551,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -6560,7 +6559,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6568,7 +6567,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6576,7 +6575,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6584,7 +6583,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6592,7 +6591,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -6600,7 +6599,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -6608,7 +6607,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -6616,7 +6615,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6656,6 +6655,7 @@
     <hyperlink ref="B37" r:id="rId33"/>
     <hyperlink ref="B38" r:id="rId34"/>
     <hyperlink ref="B39" r:id="rId35"/>
+    <hyperlink ref="B25" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f09UPPachuca.xlsx
+++ b/xlsx/a69_f09UPPachuca.xlsx
@@ -1175,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1222,7 +1222,7 @@
     <col min="27" max="27" width="49" customWidth="1"/>
     <col min="28" max="28" width="60" customWidth="1"/>
     <col min="29" max="29" width="47.140625" customWidth="1"/>
-    <col min="30" max="30" width="74.7109375" customWidth="1"/>
+    <col min="30" max="30" width="123" customWidth="1"/>
     <col min="31" max="31" width="46" customWidth="1"/>
     <col min="32" max="32" width="84.7109375" customWidth="1"/>
     <col min="33" max="33" width="73.140625" customWidth="1"/>
@@ -3044,7 +3044,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2023</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2023</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2023</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2023</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2023</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2023</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2023</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2023</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="AJ28" s="7"/>
     </row>
-    <row r="29" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2023</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2023</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2023</v>
       </c>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="AJ31" s="7"/>
     </row>
-    <row r="32" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2023</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="AJ32" s="7"/>
     </row>
-    <row r="33" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2023</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2023</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2023</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2023</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2023</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2023</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2023</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="AJ39" s="7"/>
     </row>
-    <row r="40" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2023</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2023</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2023</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2023</v>
       </c>
